--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Enho-Gpr19.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Enho-Gpr19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Enho</t>
   </si>
   <si>
     <t>Gpr19</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05797933333333333</v>
+        <v>0.06536399999999999</v>
       </c>
       <c r="H2">
-        <v>0.173938</v>
+        <v>0.196092</v>
       </c>
       <c r="I2">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500677</v>
       </c>
       <c r="J2">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500678</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6393439999999999</v>
+        <v>1.264685333333333</v>
       </c>
       <c r="N2">
-        <v>1.918032</v>
+        <v>3.794056</v>
       </c>
       <c r="O2">
-        <v>0.07469800389077416</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="P2">
-        <v>0.07469800389077418</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="Q2">
-        <v>0.03706873889066666</v>
+        <v>0.08266489212799999</v>
       </c>
       <c r="R2">
-        <v>0.333618650016</v>
+        <v>0.743984029152</v>
       </c>
       <c r="S2">
-        <v>0.006738043684963204</v>
+        <v>0.03918865360086666</v>
       </c>
       <c r="T2">
-        <v>0.006738043684963205</v>
+        <v>0.03918865360086667</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05797933333333333</v>
+        <v>0.06536399999999999</v>
       </c>
       <c r="H3">
-        <v>0.173938</v>
+        <v>0.196092</v>
       </c>
       <c r="I3">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500677</v>
       </c>
       <c r="J3">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500678</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,22 +626,22 @@
         <v>4.277952</v>
       </c>
       <c r="O3">
-        <v>0.1666053929968557</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="P3">
-        <v>0.1666053929968557</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="Q3">
-        <v>0.082677601664</v>
+        <v>0.09320801817599998</v>
       </c>
       <c r="R3">
-        <v>0.744098414976</v>
+        <v>0.838872163584</v>
       </c>
       <c r="S3">
-        <v>0.01502843928473337</v>
+        <v>0.04418679614880083</v>
       </c>
       <c r="T3">
-        <v>0.01502843928473337</v>
+        <v>0.04418679614880084</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05797933333333333</v>
+        <v>0.06536399999999999</v>
       </c>
       <c r="H4">
-        <v>0.173938</v>
+        <v>0.196092</v>
       </c>
       <c r="I4">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500677</v>
       </c>
       <c r="J4">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500678</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5741913333333334</v>
+        <v>1.045254333333333</v>
       </c>
       <c r="N4">
-        <v>1.722574</v>
+        <v>3.135763</v>
       </c>
       <c r="O4">
-        <v>0.0670858668437995</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="P4">
-        <v>0.0670858668437995</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="Q4">
-        <v>0.03329123071244445</v>
+        <v>0.06832200424399999</v>
       </c>
       <c r="R4">
-        <v>0.299621076412</v>
+        <v>0.614898038196</v>
       </c>
       <c r="S4">
-        <v>0.006051400009270861</v>
+        <v>0.03238917137264564</v>
       </c>
       <c r="T4">
-        <v>0.006051400009270861</v>
+        <v>0.03238917137264564</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05797933333333333</v>
+        <v>0.06536399999999999</v>
       </c>
       <c r="H5">
-        <v>0.173938</v>
+        <v>0.196092</v>
       </c>
       <c r="I5">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500677</v>
       </c>
       <c r="J5">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500678</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.169374</v>
+        <v>4.747820333333333</v>
       </c>
       <c r="N5">
-        <v>3.508122</v>
+        <v>14.243461</v>
       </c>
       <c r="O5">
-        <v>0.1366242642486207</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="P5">
-        <v>0.1366242642486207</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="Q5">
-        <v>0.06779952493733334</v>
+        <v>0.310336528268</v>
       </c>
       <c r="R5">
-        <v>0.6101957244360001</v>
+        <v>2.793028754412</v>
       </c>
       <c r="S5">
-        <v>0.01232402759087465</v>
+        <v>0.1471201424561086</v>
       </c>
       <c r="T5">
-        <v>0.01232402759087465</v>
+        <v>0.1471201424561087</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,61 +788,61 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05797933333333333</v>
+        <v>0.06536399999999999</v>
       </c>
       <c r="H6">
-        <v>0.173938</v>
+        <v>0.196092</v>
       </c>
       <c r="I6">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500677</v>
       </c>
       <c r="J6">
-        <v>0.09020379841495885</v>
+        <v>0.2774920824500678</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.157892</v>
+        <v>0.4714033333333333</v>
       </c>
       <c r="N6">
-        <v>9.473675999999999</v>
+        <v>1.41421</v>
       </c>
       <c r="O6">
-        <v>0.3689535350337919</v>
+        <v>0.05264048884808968</v>
       </c>
       <c r="P6">
-        <v>0.3689535350337919</v>
+        <v>0.05264048884808967</v>
       </c>
       <c r="Q6">
-        <v>0.1830924728986667</v>
+        <v>0.03081280748</v>
       </c>
       <c r="R6">
-        <v>1.647832256088</v>
+        <v>0.27731526732</v>
       </c>
       <c r="S6">
-        <v>0.03328101029867462</v>
+        <v>0.01460731887164597</v>
       </c>
       <c r="T6">
-        <v>0.03328101029867462</v>
+        <v>0.01460731887164597</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -853,46 +850,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05797933333333333</v>
+        <v>0.044285</v>
       </c>
       <c r="H7">
-        <v>0.173938</v>
+        <v>0.132855</v>
       </c>
       <c r="I7">
-        <v>0.09020379841495885</v>
+        <v>0.1880046642081459</v>
       </c>
       <c r="J7">
-        <v>0.09020379841495885</v>
+        <v>0.188004664208146</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>1.592265333333333</v>
+        <v>1.264685333333333</v>
       </c>
       <c r="N7">
-        <v>4.776796</v>
+        <v>3.794056</v>
       </c>
       <c r="O7">
-        <v>0.1860329369861579</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="P7">
-        <v>0.186032936986158</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="Q7">
-        <v>0.09231848251644445</v>
+        <v>0.05600658998666667</v>
       </c>
       <c r="R7">
-        <v>0.8308663426480001</v>
+        <v>0.50405930988</v>
       </c>
       <c r="S7">
-        <v>0.01678087754644213</v>
+        <v>0.02655084640955847</v>
       </c>
       <c r="T7">
-        <v>0.01678087754644213</v>
+        <v>0.02655084640955848</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -921,40 +918,40 @@
         <v>0.132855</v>
       </c>
       <c r="I8">
-        <v>0.06889826052052661</v>
+        <v>0.1880046642081459</v>
       </c>
       <c r="J8">
-        <v>0.06889826052052661</v>
+        <v>0.188004664208146</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.6393439999999999</v>
+        <v>1.425984</v>
       </c>
       <c r="N8">
-        <v>1.918032</v>
+        <v>4.277952</v>
       </c>
       <c r="O8">
-        <v>0.07469800389077416</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="P8">
-        <v>0.07469800389077418</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="Q8">
-        <v>0.02831334903999999</v>
+        <v>0.06314970144</v>
       </c>
       <c r="R8">
-        <v>0.25482014136</v>
+        <v>0.56834731296</v>
       </c>
       <c r="S8">
-        <v>0.005146562532429869</v>
+        <v>0.02993715604078155</v>
       </c>
       <c r="T8">
-        <v>0.00514656253242987</v>
+        <v>0.02993715604078155</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -983,40 +980,40 @@
         <v>0.132855</v>
       </c>
       <c r="I9">
-        <v>0.06889826052052661</v>
+        <v>0.1880046642081459</v>
       </c>
       <c r="J9">
-        <v>0.06889826052052661</v>
+        <v>0.188004664208146</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>1.425984</v>
+        <v>1.045254333333333</v>
       </c>
       <c r="N9">
-        <v>4.277952</v>
+        <v>3.135763</v>
       </c>
       <c r="O9">
-        <v>0.1666053929968557</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="P9">
-        <v>0.1666053929968557</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="Q9">
-        <v>0.06314970144</v>
+        <v>0.04628908815166666</v>
       </c>
       <c r="R9">
-        <v>0.56834731296</v>
+        <v>0.416601793365</v>
       </c>
       <c r="S9">
-        <v>0.01147882177082208</v>
+        <v>0.02194410461779592</v>
       </c>
       <c r="T9">
-        <v>0.01147882177082209</v>
+        <v>0.02194410461779592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1045,40 +1042,40 @@
         <v>0.132855</v>
       </c>
       <c r="I10">
-        <v>0.06889826052052661</v>
+        <v>0.1880046642081459</v>
       </c>
       <c r="J10">
-        <v>0.06889826052052661</v>
+        <v>0.188004664208146</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.5741913333333334</v>
+        <v>4.747820333333333</v>
       </c>
       <c r="N10">
-        <v>1.722574</v>
+        <v>14.243461</v>
       </c>
       <c r="O10">
-        <v>0.0670858668437995</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="P10">
-        <v>0.0670858668437995</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="Q10">
-        <v>0.02542806319666667</v>
+        <v>0.2102572234616666</v>
       </c>
       <c r="R10">
-        <v>0.22885256877</v>
+        <v>1.892315011155</v>
       </c>
       <c r="S10">
-        <v>0.004622099531049456</v>
+        <v>0.09967589971037225</v>
       </c>
       <c r="T10">
-        <v>0.004622099531049456</v>
+        <v>0.09967589971037226</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1107,45 +1104,45 @@
         <v>0.132855</v>
       </c>
       <c r="I11">
-        <v>0.06889826052052661</v>
+        <v>0.1880046642081459</v>
       </c>
       <c r="J11">
-        <v>0.06889826052052661</v>
+        <v>0.188004664208146</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>1.169374</v>
+        <v>0.4714033333333333</v>
       </c>
       <c r="N11">
-        <v>3.508122</v>
+        <v>1.41421</v>
       </c>
       <c r="O11">
-        <v>0.1366242642486207</v>
+        <v>0.05264048884808968</v>
       </c>
       <c r="P11">
-        <v>0.1366242642486207</v>
+        <v>0.05264048884808967</v>
       </c>
       <c r="Q11">
-        <v>0.05178572759</v>
+        <v>0.02087609661666667</v>
       </c>
       <c r="R11">
-        <v>0.46607154831</v>
+        <v>0.18788486955</v>
       </c>
       <c r="S11">
-        <v>0.009413174151626741</v>
+        <v>0.00989665742963775</v>
       </c>
       <c r="T11">
-        <v>0.009413174151626741</v>
+        <v>0.009896657429637752</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1154,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,61 +1160,61 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.044285</v>
+        <v>0.06000533333333333</v>
       </c>
       <c r="H12">
-        <v>0.132855</v>
+        <v>0.180016</v>
       </c>
       <c r="I12">
-        <v>0.06889826052052661</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="J12">
-        <v>0.06889826052052661</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>3.157892</v>
+        <v>1.264685333333333</v>
       </c>
       <c r="N12">
-        <v>9.473675999999999</v>
+        <v>3.794056</v>
       </c>
       <c r="O12">
-        <v>0.3689535350337919</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="P12">
-        <v>0.3689535350337919</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="Q12">
-        <v>0.13984724722</v>
+        <v>0.07588786498844445</v>
       </c>
       <c r="R12">
-        <v>1.25862522498</v>
+        <v>0.6829907848960001</v>
       </c>
       <c r="S12">
-        <v>0.02542025677672743</v>
+        <v>0.03597589226798448</v>
       </c>
       <c r="T12">
-        <v>0.02542025677672744</v>
+        <v>0.03597589226798448</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
@@ -1225,46 +1222,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.044285</v>
+        <v>0.06000533333333333</v>
       </c>
       <c r="H13">
-        <v>0.132855</v>
+        <v>0.180016</v>
       </c>
       <c r="I13">
-        <v>0.06889826052052661</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="J13">
-        <v>0.06889826052052661</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.592265333333333</v>
+        <v>1.425984</v>
       </c>
       <c r="N13">
-        <v>4.776796</v>
+        <v>4.277952</v>
       </c>
       <c r="O13">
-        <v>0.1860329369861579</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="P13">
-        <v>0.186032936986158</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="Q13">
-        <v>0.07051347028666667</v>
+        <v>0.08556664524799999</v>
       </c>
       <c r="R13">
-        <v>0.63462123258</v>
+        <v>0.770099807232</v>
       </c>
       <c r="S13">
-        <v>0.01281734575787102</v>
+        <v>0.04056427745916474</v>
       </c>
       <c r="T13">
-        <v>0.01281734575787102</v>
+        <v>0.04056427745916474</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1211416666666667</v>
+        <v>0.06000533333333333</v>
       </c>
       <c r="H14">
-        <v>0.363425</v>
+        <v>0.180016</v>
       </c>
       <c r="I14">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="J14">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6393439999999999</v>
+        <v>1.045254333333333</v>
       </c>
       <c r="N14">
-        <v>1.918032</v>
+        <v>3.135763</v>
       </c>
       <c r="O14">
-        <v>0.07469800389077416</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="P14">
-        <v>0.07469800389077418</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="Q14">
-        <v>0.07745119773333332</v>
+        <v>0.06272083468977778</v>
       </c>
       <c r="R14">
-        <v>0.6970607795999999</v>
+        <v>0.564487512208</v>
       </c>
       <c r="S14">
-        <v>0.01407842752134526</v>
+        <v>0.02973384469441985</v>
       </c>
       <c r="T14">
-        <v>0.01407842752134527</v>
+        <v>0.02973384469441985</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1337,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1211416666666667</v>
+        <v>0.06000533333333333</v>
       </c>
       <c r="H15">
-        <v>0.363425</v>
+        <v>0.180016</v>
       </c>
       <c r="I15">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="J15">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.425984</v>
+        <v>4.747820333333333</v>
       </c>
       <c r="N15">
-        <v>4.277952</v>
+        <v>14.243461</v>
       </c>
       <c r="O15">
-        <v>0.1666053929968557</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="P15">
-        <v>0.1666053929968557</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="Q15">
-        <v>0.1727460784</v>
+        <v>0.2848945417084445</v>
       </c>
       <c r="R15">
-        <v>1.5547147056</v>
+        <v>2.564050875376</v>
       </c>
       <c r="S15">
-        <v>0.03140032969825009</v>
+        <v>0.135058949699013</v>
       </c>
       <c r="T15">
-        <v>0.03140032969825009</v>
+        <v>0.135058949699013</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1211416666666667</v>
+        <v>0.06000533333333333</v>
       </c>
       <c r="H16">
-        <v>0.363425</v>
+        <v>0.180016</v>
       </c>
       <c r="I16">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="J16">
-        <v>0.1884712681470203</v>
+        <v>0.2547427468450085</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1426,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.5741913333333334</v>
+        <v>0.4714033333333333</v>
       </c>
       <c r="N16">
-        <v>1.722574</v>
+        <v>1.41421</v>
       </c>
       <c r="O16">
-        <v>0.0670858668437995</v>
+        <v>0.05264048884808968</v>
       </c>
       <c r="P16">
-        <v>0.0670858668437995</v>
+        <v>0.05264048884808967</v>
       </c>
       <c r="Q16">
-        <v>0.06955849510555556</v>
+        <v>0.02828671415111111</v>
       </c>
       <c r="R16">
-        <v>0.6260264559500001</v>
+        <v>0.25458042736</v>
       </c>
       <c r="S16">
-        <v>0.01264375839879303</v>
+        <v>0.0134097827244264</v>
       </c>
       <c r="T16">
-        <v>0.01264375839879303</v>
+        <v>0.0134097827244264</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>24</v>
@@ -1464,60 +1461,60 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06589833333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.197695</v>
+      </c>
+      <c r="I17">
+        <v>0.2797605064967778</v>
+      </c>
+      <c r="J17">
+        <v>0.2797605064967778</v>
+      </c>
+      <c r="K17">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="L17">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G17">
-        <v>0.1211416666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.363425</v>
-      </c>
-      <c r="I17">
-        <v>0.1884712681470203</v>
-      </c>
-      <c r="J17">
-        <v>0.1884712681470203</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
       <c r="M17">
-        <v>1.169374</v>
+        <v>1.264685333333333</v>
       </c>
       <c r="N17">
-        <v>3.508122</v>
+        <v>3.794056</v>
       </c>
       <c r="O17">
-        <v>0.1366242642486207</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="P17">
-        <v>0.1366242642486207</v>
+        <v>0.1412244027103667</v>
       </c>
       <c r="Q17">
-        <v>0.1416599153166667</v>
+        <v>0.08334065565777779</v>
       </c>
       <c r="R17">
-        <v>1.27493923785</v>
+        <v>0.7500659009200001</v>
       </c>
       <c r="S17">
-        <v>0.02574974834259116</v>
+        <v>0.03950901043195712</v>
       </c>
       <c r="T17">
-        <v>0.02574974834259116</v>
+        <v>0.03950901043195712</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1526,87 +1523,87 @@
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06589833333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.197695</v>
+      </c>
+      <c r="I18">
+        <v>0.2797605064967778</v>
+      </c>
+      <c r="J18">
+        <v>0.2797605064967778</v>
+      </c>
+      <c r="K18">
         <v>2</v>
       </c>
-      <c r="F18">
+      <c r="L18">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G18">
-        <v>0.1211416666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.363425</v>
-      </c>
-      <c r="I18">
-        <v>0.1884712681470203</v>
-      </c>
-      <c r="J18">
-        <v>0.1884712681470203</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
       <c r="M18">
-        <v>3.157892</v>
+        <v>1.425984</v>
       </c>
       <c r="N18">
-        <v>9.473675999999999</v>
+        <v>4.277952</v>
       </c>
       <c r="O18">
-        <v>0.3689535350337919</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="P18">
-        <v>0.3689535350337919</v>
+        <v>0.1592362411160032</v>
       </c>
       <c r="Q18">
-        <v>0.3825523000333333</v>
+        <v>0.09396996896</v>
       </c>
       <c r="R18">
-        <v>3.4429707003</v>
+        <v>0.8457297206400001</v>
       </c>
       <c r="S18">
-        <v>0.06953714063514484</v>
+        <v>0.0445480114672561</v>
       </c>
       <c r="T18">
-        <v>0.06953714063514485</v>
+        <v>0.04454801146725609</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.1211416666666667</v>
+        <v>0.06589833333333334</v>
       </c>
       <c r="H19">
-        <v>0.363425</v>
+        <v>0.197695</v>
       </c>
       <c r="I19">
-        <v>0.1884712681470203</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="J19">
-        <v>0.1884712681470203</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.592265333333333</v>
+        <v>1.045254333333333</v>
       </c>
       <c r="N19">
-        <v>4.776796</v>
+        <v>3.135763</v>
       </c>
       <c r="O19">
-        <v>0.1860329369861579</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="P19">
-        <v>0.186032936986158</v>
+        <v>0.1167210649279472</v>
       </c>
       <c r="Q19">
-        <v>0.1928896762555556</v>
+        <v>0.06888051847611111</v>
       </c>
       <c r="R19">
-        <v>1.7360070863</v>
+        <v>0.619924666285</v>
       </c>
       <c r="S19">
-        <v>0.0350618635508959</v>
+        <v>0.0326539442430858</v>
       </c>
       <c r="T19">
-        <v>0.03506186355089591</v>
+        <v>0.0326539442430858</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.4193533333333333</v>
+        <v>0.06589833333333334</v>
       </c>
       <c r="H20">
-        <v>1.25806</v>
+        <v>0.197695</v>
       </c>
       <c r="I20">
-        <v>0.6524266729174943</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="J20">
-        <v>0.6524266729174942</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6393439999999999</v>
+        <v>4.747820333333333</v>
       </c>
       <c r="N20">
-        <v>1.918032</v>
+        <v>14.243461</v>
       </c>
       <c r="O20">
-        <v>0.07469800389077416</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="P20">
-        <v>0.07469800389077418</v>
+        <v>0.5301778023975932</v>
       </c>
       <c r="Q20">
-        <v>0.2681110375466666</v>
+        <v>0.3128734469327778</v>
       </c>
       <c r="R20">
-        <v>2.41299933792</v>
+        <v>2.815861022395</v>
       </c>
       <c r="S20">
-        <v>0.04873497015203583</v>
+        <v>0.1483228105320993</v>
       </c>
       <c r="T20">
-        <v>0.04873497015203584</v>
+        <v>0.1483228105320993</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1709,7 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.4193533333333333</v>
+        <v>0.06589833333333334</v>
       </c>
       <c r="H21">
-        <v>1.25806</v>
+        <v>0.197695</v>
       </c>
       <c r="I21">
-        <v>0.6524266729174943</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="J21">
-        <v>0.6524266729174942</v>
+        <v>0.2797605064967778</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1739,276 +1736,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>1.425984</v>
+        <v>0.4714033333333333</v>
       </c>
       <c r="N21">
-        <v>4.277952</v>
+        <v>1.41421</v>
       </c>
       <c r="O21">
-        <v>0.1666053929968557</v>
+        <v>0.05264048884808968</v>
       </c>
       <c r="P21">
-        <v>0.1666053929968557</v>
+        <v>0.05264048884808967</v>
       </c>
       <c r="Q21">
-        <v>0.5979911436799999</v>
+        <v>0.03106469399444445</v>
       </c>
       <c r="R21">
-        <v>5.381920293119999</v>
+        <v>0.27958224595</v>
       </c>
       <c r="S21">
-        <v>0.1086978022430502</v>
+        <v>0.01472672982237955</v>
       </c>
       <c r="T21">
-        <v>0.1086978022430502</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.4193533333333333</v>
-      </c>
-      <c r="H22">
-        <v>1.25806</v>
-      </c>
-      <c r="I22">
-        <v>0.6524266729174943</v>
-      </c>
-      <c r="J22">
-        <v>0.6524266729174942</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M22">
-        <v>0.5741913333333334</v>
-      </c>
-      <c r="N22">
-        <v>1.722574</v>
-      </c>
-      <c r="O22">
-        <v>0.0670858668437995</v>
-      </c>
-      <c r="P22">
-        <v>0.0670858668437995</v>
-      </c>
-      <c r="Q22">
-        <v>0.2407890496044444</v>
-      </c>
-      <c r="R22">
-        <v>2.16710144644</v>
-      </c>
-      <c r="S22">
-        <v>0.04376860890468615</v>
-      </c>
-      <c r="T22">
-        <v>0.04376860890468615</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.4193533333333333</v>
-      </c>
-      <c r="H23">
-        <v>1.25806</v>
-      </c>
-      <c r="I23">
-        <v>0.6524266729174943</v>
-      </c>
-      <c r="J23">
-        <v>0.6524266729174942</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1.169374</v>
-      </c>
-      <c r="N23">
-        <v>3.508122</v>
-      </c>
-      <c r="O23">
-        <v>0.1366242642486207</v>
-      </c>
-      <c r="P23">
-        <v>0.1366242642486207</v>
-      </c>
-      <c r="Q23">
-        <v>0.4903808848133334</v>
-      </c>
-      <c r="R23">
-        <v>4.41342796332</v>
-      </c>
-      <c r="S23">
-        <v>0.0891373141635282</v>
-      </c>
-      <c r="T23">
-        <v>0.08913731416352817</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.4193533333333333</v>
-      </c>
-      <c r="H24">
-        <v>1.25806</v>
-      </c>
-      <c r="I24">
-        <v>0.6524266729174943</v>
-      </c>
-      <c r="J24">
-        <v>0.6524266729174942</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>3.157892</v>
-      </c>
-      <c r="N24">
-        <v>9.473675999999999</v>
-      </c>
-      <c r="O24">
-        <v>0.3689535350337919</v>
-      </c>
-      <c r="P24">
-        <v>0.3689535350337919</v>
-      </c>
-      <c r="Q24">
-        <v>1.324272536506667</v>
-      </c>
-      <c r="R24">
-        <v>11.91845282856</v>
-      </c>
-      <c r="S24">
-        <v>0.240715127323245</v>
-      </c>
-      <c r="T24">
-        <v>0.240715127323245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.4193533333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.25806</v>
-      </c>
-      <c r="I25">
-        <v>0.6524266729174943</v>
-      </c>
-      <c r="J25">
-        <v>0.6524266729174942</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.592265333333333</v>
-      </c>
-      <c r="N25">
-        <v>4.776796</v>
-      </c>
-      <c r="O25">
-        <v>0.1860329369861579</v>
-      </c>
-      <c r="P25">
-        <v>0.186032936986158</v>
-      </c>
-      <c r="Q25">
-        <v>0.6677217750844444</v>
-      </c>
-      <c r="R25">
-        <v>6.00949597576</v>
-      </c>
-      <c r="S25">
-        <v>0.1213728501309489</v>
-      </c>
-      <c r="T25">
-        <v>0.1213728501309489</v>
+        <v>0.01472672982237955</v>
       </c>
     </row>
   </sheetData>
